--- a/compitition_material/data_solved/X1.xlsx
+++ b/compitition_material/data_solved/X1.xlsx
@@ -164,7 +164,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +175,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -666,133 +659,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -803,8 +796,8 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1332,11 +1325,16 @@
   <sheetPr/>
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="10" max="33" width="12.8181818181818"/>
+    <col min="34" max="35" width="14"/>
+    <col min="37" max="41" width="12.8181818181818"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
@@ -1468,16 +1466,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2.02</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
-        <v>4.61</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
-        <v>4.01</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>10.79</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3">
         <v>27</v>
@@ -1492,100 +1490,100 @@
         <v>66</v>
       </c>
       <c r="J2" s="3">
-        <v>9.77</v>
+        <v>8.72105051818048</v>
       </c>
       <c r="K2" s="3">
-        <v>6.04</v>
+        <v>11.1129735478476</v>
       </c>
       <c r="L2" s="3">
-        <v>10.94</v>
+        <v>7.55992559062316</v>
       </c>
       <c r="M2" s="3">
-        <v>26.71</v>
+        <v>28.909557583038</v>
       </c>
       <c r="N2" s="3">
-        <v>9.98</v>
+        <v>22.7184447381843</v>
       </c>
       <c r="O2" s="3">
-        <v>11.94</v>
+        <v>16.5322781067579</v>
       </c>
       <c r="P2" s="3">
-        <v>11.73</v>
+        <v>24.654738670897</v>
       </c>
       <c r="Q2" s="3">
-        <v>35.98</v>
+        <v>64.7216498443375</v>
       </c>
       <c r="R2" s="3">
-        <v>5.19</v>
+        <v>8.26723691580226</v>
       </c>
       <c r="S2" s="3">
-        <v>11.99</v>
+        <v>12.8188957617403</v>
       </c>
       <c r="T2" s="3">
-        <v>6.92</v>
+        <v>9.84317776777053</v>
       </c>
       <c r="U2" s="3">
-        <v>23.93</v>
+        <v>34.6436725951648</v>
       </c>
       <c r="V2" s="3">
-        <v>8.85</v>
+        <v>8.21137613230271</v>
       </c>
       <c r="W2" s="3">
-        <v>10.72</v>
+        <v>10.7256339225496</v>
       </c>
       <c r="X2" s="3">
-        <v>8.63</v>
+        <v>6.98671755253285</v>
       </c>
       <c r="Y2" s="3">
-        <v>28.23</v>
+        <v>26.8822829771045</v>
       </c>
       <c r="Z2" s="3">
-        <v>7.29</v>
+        <v>8.07210090447214</v>
       </c>
       <c r="AA2" s="3">
-        <v>6.48</v>
+        <v>6.43385708800395</v>
       </c>
       <c r="AB2" s="3">
-        <v>6.99</v>
+        <v>7.49610073785979</v>
       </c>
       <c r="AC2" s="3">
-        <v>20.48</v>
+        <v>21.9558757448629</v>
       </c>
       <c r="AD2" s="3">
-        <v>4.44</v>
+        <v>4.89045348493235</v>
       </c>
       <c r="AE2" s="3">
-        <v>2.7</v>
+        <v>2.9420206840118</v>
       </c>
       <c r="AF2" s="3">
-        <v>7.56</v>
+        <v>6.16066479227053</v>
       </c>
       <c r="AG2" s="3">
-        <v>14.35</v>
+        <v>14.5873055381933</v>
       </c>
       <c r="AH2" s="3">
-        <v>1.56</v>
+        <v>-7.35904367988021e-10</v>
       </c>
       <c r="AI2" s="3">
-        <v>1.3</v>
+        <v>-4.2351647362715e-22</v>
       </c>
       <c r="AJ2" s="3">
-        <v>3.04</v>
+        <v>2</v>
       </c>
       <c r="AK2" s="3">
-        <v>5.9</v>
+        <v>2.00000000644969</v>
       </c>
       <c r="AL2" s="3">
-        <v>39.76</v>
+        <v>33.2679328403258</v>
       </c>
       <c r="AM2" s="3">
-        <v>30.12</v>
+        <v>26.5927540914762</v>
       </c>
       <c r="AN2" s="3">
-        <v>24.01</v>
+        <v>24.7350903043721</v>
       </c>
       <c r="AO2" s="3">
-        <v>92.96</v>
+        <v>85.1583608361481</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1593,16 +1591,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>2.0634</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>4.67870000000001</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>4.0867</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
-        <v>10.9193</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3">
         <v>27</v>
@@ -1617,100 +1615,100 @@
         <v>66</v>
       </c>
       <c r="J3" s="3">
-        <v>9.74589999999999</v>
+        <v>9.20829719893057</v>
       </c>
       <c r="K3" s="3">
-        <v>6.1668</v>
+        <v>10.2531411668082</v>
       </c>
       <c r="L3" s="3">
-        <v>11.0698</v>
+        <v>9.92464488419517</v>
       </c>
       <c r="M3" s="3">
-        <v>27.1557</v>
+        <v>28.9449149887382</v>
       </c>
       <c r="N3" s="3">
-        <v>9.93660000000001</v>
+        <v>18.2495807343048</v>
       </c>
       <c r="O3" s="3">
-        <v>11.8098</v>
+        <v>16.2576538118707</v>
       </c>
       <c r="P3" s="3">
-        <v>11.9191</v>
+        <v>18.2558783887889</v>
       </c>
       <c r="Q3" s="3">
-        <v>35.9866</v>
+        <v>54.8820362570914</v>
       </c>
       <c r="R3" s="3">
-        <v>5.6273</v>
+        <v>7.5810157427286</v>
       </c>
       <c r="S3" s="3">
-        <v>12.2833</v>
+        <v>12.8624080443003</v>
       </c>
       <c r="T3" s="3">
-        <v>7.24639999999999</v>
+        <v>10.1463093625991</v>
       </c>
       <c r="U3" s="3">
-        <v>25.0531</v>
+        <v>34.1917841396813</v>
       </c>
       <c r="V3" s="3">
-        <v>8.84950000000001</v>
+        <v>8.18989726710067</v>
       </c>
       <c r="W3" s="3">
-        <v>10.5724</v>
+        <v>10.6726786402246</v>
       </c>
       <c r="X3" s="3">
-        <v>8.7221</v>
+        <v>7.44715544011913</v>
       </c>
       <c r="Y3" s="3">
-        <v>28.0541</v>
+        <v>26.8951217100299</v>
       </c>
       <c r="Z3" s="3">
-        <v>7.2043</v>
+        <v>8.06694716541823</v>
       </c>
       <c r="AA3" s="3">
-        <v>6.43160000000001</v>
+        <v>6.09823382105785</v>
       </c>
       <c r="AB3" s="3">
-        <v>7.02330000000001</v>
+        <v>7.15319364399978</v>
       </c>
       <c r="AC3" s="3">
-        <v>20.1816</v>
+        <v>21.1682083766011</v>
       </c>
       <c r="AD3" s="3">
-        <v>4.4948</v>
+        <v>4.93473191704804</v>
       </c>
       <c r="AE3" s="3">
-        <v>2.729</v>
+        <v>3.06384645515162</v>
       </c>
       <c r="AF3" s="3">
-        <v>7.61519999999999</v>
+        <v>5.22462683249672</v>
       </c>
       <c r="AG3" s="3">
-        <v>14.4245</v>
+        <v>15.1488244819076</v>
       </c>
       <c r="AH3" s="3">
-        <v>1.4652</v>
+        <v>-7.35925082938515e-10</v>
       </c>
       <c r="AI3" s="3">
-        <v>1.221</v>
+        <v>-4.2351647362715e-22</v>
       </c>
       <c r="AJ3" s="3">
-        <v>2.9768</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="3">
-        <v>5.66299999999999</v>
+        <v>2.00000000645104</v>
       </c>
       <c r="AL3" s="3">
-        <v>39.5592000000001</v>
+        <v>34.5350054325433</v>
       </c>
       <c r="AM3" s="3">
-        <v>30.3804</v>
+        <v>26.7144677823879</v>
       </c>
       <c r="AN3" s="3">
-        <v>23.8767</v>
+        <v>23.684750456018</v>
       </c>
       <c r="AO3" s="3">
-        <v>91.6532</v>
+        <v>84.8951572407901</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1718,16 +1716,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>2.105176</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>4.660768</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>4.156921</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3">
-        <v>11.338759</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3">
         <v>27</v>
@@ -1742,100 +1740,100 @@
         <v>66</v>
       </c>
       <c r="J4" s="3">
-        <v>9.887258</v>
+        <v>9.02145500709151</v>
       </c>
       <c r="K4" s="3">
-        <v>6.136752</v>
+        <v>10.4060815253857</v>
       </c>
       <c r="L4" s="3">
-        <v>10.71988</v>
+        <v>9.07821357820108</v>
       </c>
       <c r="M4" s="3">
-        <v>27.202477</v>
+        <v>28.9396904128852</v>
       </c>
       <c r="N4" s="3">
-        <v>10.025458</v>
+        <v>20.1149844211449</v>
       </c>
       <c r="O4" s="3">
-        <v>11.789468</v>
+        <v>16.2680427977439</v>
       </c>
       <c r="P4" s="3">
-        <v>11.849106</v>
+        <v>22.1187780119539</v>
       </c>
       <c r="Q4" s="3">
-        <v>36.106156</v>
+        <v>58.6595872854307</v>
       </c>
       <c r="R4" s="3">
-        <v>11.312296</v>
+        <v>7.92918109030543</v>
       </c>
       <c r="S4" s="3">
-        <v>17.036648</v>
+        <v>12.8646566903601</v>
       </c>
       <c r="T4" s="3">
-        <v>10.942128</v>
+        <v>10.1713480086172</v>
       </c>
       <c r="U4" s="3">
-        <v>40.31465</v>
+        <v>34.2238810040099</v>
       </c>
       <c r="V4" s="3">
-        <v>8.63068500000002</v>
+        <v>8.13728618572734</v>
       </c>
       <c r="W4" s="3">
-        <v>10.323412</v>
+        <v>10.6605573974497</v>
       </c>
       <c r="X4" s="3">
-        <v>8.34463899999999</v>
+        <v>7.23287857234836</v>
       </c>
       <c r="Y4" s="3">
-        <v>27.204683</v>
+        <v>26.8870194803699</v>
       </c>
       <c r="Z4" s="3">
-        <v>7.23745199999999</v>
+        <v>8.06731389737955</v>
       </c>
       <c r="AA4" s="3">
-        <v>6.424856</v>
+        <v>5.90132140028281</v>
       </c>
       <c r="AB4" s="3">
-        <v>7.02297799999999</v>
+        <v>6.92277378732625</v>
       </c>
       <c r="AC4" s="3">
-        <v>20.425208</v>
+        <v>20.579663442471</v>
       </c>
       <c r="AD4" s="3">
-        <v>4.260688</v>
+        <v>4.91493586950497</v>
       </c>
       <c r="AE4" s="3">
-        <v>2.82168999999999</v>
+        <v>3.07847338910267</v>
       </c>
       <c r="AF4" s="3">
-        <v>7.53372799999999</v>
+        <v>4.86586089033713</v>
       </c>
       <c r="AG4" s="3">
-        <v>13.595445</v>
+        <v>14.9172934445935</v>
       </c>
       <c r="AH4" s="3">
-        <v>1.477032</v>
+        <v>-7.35925086036892e-10</v>
       </c>
       <c r="AI4" s="3">
-        <v>1.23086</v>
+        <v>-4.2351647362715e-22</v>
       </c>
       <c r="AJ4" s="3">
-        <v>2.984688</v>
+        <v>2</v>
       </c>
       <c r="AK4" s="3">
-        <v>5.69258</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL4" s="3">
-        <v>39.5934800000001</v>
+        <v>34.1980278742893</v>
       </c>
       <c r="AM4" s="3">
-        <v>30.24606</v>
+        <v>26.6868619567268</v>
       </c>
       <c r="AN4" s="3">
-        <v>23.397287</v>
+        <v>23.8951018321214</v>
       </c>
       <c r="AO4" s="3">
-        <v>91.6515159999999</v>
+        <v>84.9896107001036</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1843,16 +1841,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2.08379056</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>4.70575868</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>4.10748113000001</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
-        <v>11.17659632</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
         <v>27</v>
@@ -1867,100 +1865,100 @@
         <v>66</v>
       </c>
       <c r="J5" s="3">
-        <v>9.70581199999999</v>
+        <v>9.09552483706568</v>
       </c>
       <c r="K5" s="3">
-        <v>6.10496</v>
+        <v>10.37997559982</v>
       </c>
       <c r="L5" s="3">
-        <v>10.8422592</v>
+        <v>9.39260525375842</v>
       </c>
       <c r="M5" s="3">
-        <v>26.96019788</v>
+        <v>28.9459074359579</v>
       </c>
       <c r="N5" s="3">
-        <v>9.78837526</v>
+        <v>19.3274625912729</v>
       </c>
       <c r="O5" s="3">
-        <v>11.80722276</v>
+        <v>16.2642744557087</v>
       </c>
       <c r="P5" s="3">
-        <v>11.679502</v>
+        <v>19.7763353120409</v>
       </c>
       <c r="Q5" s="3">
-        <v>35.55811356</v>
+        <v>57.1959982788991</v>
       </c>
       <c r="R5" s="3">
-        <v>9.76555344000001</v>
+        <v>8.02764523589889</v>
       </c>
       <c r="S5" s="3">
-        <v>16.07440956</v>
+        <v>12.8673791428762</v>
       </c>
       <c r="T5" s="3">
-        <v>9.40928112</v>
+        <v>10.1759629598569</v>
       </c>
       <c r="U5" s="3">
-        <v>34.7901845</v>
+        <v>34.2311105859986</v>
       </c>
       <c r="V5" s="3">
-        <v>8.61666770000001</v>
+        <v>8.08284182545546</v>
       </c>
       <c r="W5" s="3">
-        <v>10.46780388</v>
+        <v>10.6569174506883</v>
       </c>
       <c r="X5" s="3">
-        <v>8.22511533</v>
+        <v>7.33155027426201</v>
       </c>
       <c r="Y5" s="3">
-        <v>27.5310175</v>
+        <v>26.8862493828045</v>
       </c>
       <c r="Z5" s="3">
-        <v>7.24980783999999</v>
+        <v>8.06728728325018</v>
       </c>
       <c r="AA5" s="3">
-        <v>6.45002872</v>
+        <v>5.78682548208765</v>
       </c>
       <c r="AB5" s="3">
-        <v>7.03936553999999</v>
+        <v>6.76890382532916</v>
       </c>
       <c r="AC5" s="3">
-        <v>20.4216192000001</v>
+        <v>20.1431462935992</v>
       </c>
       <c r="AD5" s="3">
-        <v>4.42980384</v>
+        <v>4.92316356950506</v>
       </c>
       <c r="AE5" s="3">
-        <v>2.74079189999999</v>
+        <v>3.07986564492617</v>
       </c>
       <c r="AF5" s="3">
-        <v>7.61025183999999</v>
+        <v>4.75044112561934</v>
       </c>
       <c r="AG5" s="3">
-        <v>13.9356185</v>
+        <v>15.0106596007723</v>
       </c>
       <c r="AH5" s="3">
-        <v>1.4469084</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI5" s="3">
-        <v>1.2061514</v>
+        <v>-4.23516473626979e-22</v>
       </c>
       <c r="AJ5" s="3">
-        <v>2.96539536</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="3">
-        <v>5.6208242</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL5" s="3">
-        <v>39.5399956000001</v>
+        <v>34.2993255121346</v>
       </c>
       <c r="AM5" s="3">
-        <v>29.9323072</v>
+        <v>26.7004686385762</v>
       </c>
       <c r="AN5" s="3">
-        <v>22.99749537</v>
+        <v>23.8601417481808</v>
       </c>
       <c r="AO5" s="3">
-        <v>90.8019739999999</v>
+        <v>84.9849033518198</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1968,16 +1966,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>2.0808623344</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>4.68349036560001</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3">
-        <v>4.1046987363</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
-        <v>11.0909014476</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3">
         <v>27</v>
@@ -1992,100 +1990,100 @@
         <v>66</v>
       </c>
       <c r="J6" s="3">
-        <v>9.6487862</v>
+        <v>9.0670038757705</v>
       </c>
       <c r="K6" s="3">
-        <v>6.07753904</v>
+        <v>10.3865673715452</v>
       </c>
       <c r="L6" s="3">
-        <v>10.871333408</v>
+        <v>9.27652770582633</v>
       </c>
       <c r="M6" s="3">
-        <v>26.6524570512</v>
+        <v>28.9477647399244</v>
       </c>
       <c r="N6" s="3">
-        <v>9.69256160039999</v>
+        <v>19.6599911102693</v>
       </c>
       <c r="O6" s="3">
-        <v>11.8084025248</v>
+        <v>16.2628422699728</v>
       </c>
       <c r="P6" s="3">
-        <v>11.60408098</v>
+        <v>21.2021906978509</v>
       </c>
       <c r="Q6" s="3">
-        <v>35.4702561332</v>
+        <v>57.7643816379517</v>
       </c>
       <c r="R6" s="3">
-        <v>10.3608024352</v>
+        <v>8.13659296676688</v>
       </c>
       <c r="S6" s="3">
-        <v>16.1807501508</v>
+        <v>12.870219669119</v>
       </c>
       <c r="T6" s="3">
-        <v>9.77553869599999</v>
+        <v>10.1786348098908</v>
       </c>
       <c r="U6" s="3">
-        <v>36.487184665</v>
+        <v>34.2377641731957</v>
       </c>
       <c r="V6" s="3">
-        <v>8.65674215000001</v>
+        <v>8.02893715075604</v>
       </c>
       <c r="W6" s="3">
-        <v>10.4924436272</v>
+        <v>10.6555114209046</v>
       </c>
       <c r="X6" s="3">
-        <v>8.29666014879999</v>
+        <v>7.28495184582013</v>
       </c>
       <c r="Y6" s="3">
-        <v>27.79239165</v>
+        <v>26.885206611417</v>
       </c>
       <c r="Z6" s="3">
-        <v>7.2362725648</v>
+        <v>8.06728911318218</v>
       </c>
       <c r="AA6" s="3">
-        <v>6.44111703679999</v>
+        <v>5.7208832051866</v>
       </c>
       <c r="AB6" s="3">
-        <v>7.02747453299999</v>
+        <v>6.66687607877521</v>
       </c>
       <c r="AC6" s="3">
-        <v>20.3650495040001</v>
+        <v>19.8213816276448</v>
       </c>
       <c r="AD6" s="3">
-        <v>4.4527133632</v>
+        <v>4.91948139776602</v>
       </c>
       <c r="AE6" s="3">
-        <v>2.71917299799999</v>
+        <v>3.07973068622632</v>
       </c>
       <c r="AF6" s="3">
-        <v>7.59852921599999</v>
+        <v>4.71393488416034</v>
       </c>
       <c r="AG6" s="3">
-        <v>14.074292015</v>
+        <v>14.9717004507924</v>
       </c>
       <c r="AH6" s="3">
-        <v>1.449606096</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI6" s="3">
-        <v>1.206548702</v>
+        <v>-4.23516497286719e-22</v>
       </c>
       <c r="AJ6" s="3">
-        <v>2.9649087792</v>
+        <v>2</v>
       </c>
       <c r="AK6" s="3">
-        <v>5.627400932</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL6" s="3">
-        <v>39.5619842440001</v>
+        <v>34.2763816803837</v>
       </c>
       <c r="AM6" s="3">
-        <v>30.12543624</v>
+        <v>26.701022538829</v>
       </c>
       <c r="AN6" s="3">
-        <v>23.3212318802</v>
+        <v>23.8729120739931</v>
       </c>
       <c r="AO6" s="3">
-        <v>91.2716538199999</v>
+        <v>85.0028946137926</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -2093,16 +2091,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>2.084193293104</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>4.67727169893601</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>4.08876622639</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>11.125284324048</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3">
         <v>27</v>
@@ -2117,100 +2115,100 @@
         <v>66</v>
       </c>
       <c r="J7" s="3">
-        <v>9.70398545800001</v>
+        <v>9.07905334042647</v>
       </c>
       <c r="K7" s="3">
-        <v>6.0831619248</v>
+        <v>10.38653155602</v>
       </c>
       <c r="L7" s="3">
-        <v>10.85454679104</v>
+        <v>9.32164434634712</v>
       </c>
       <c r="M7" s="3">
-        <v>26.856153517264</v>
+        <v>28.9502243599675</v>
       </c>
       <c r="N7" s="3">
-        <v>9.994189251776</v>
+        <v>19.5182612682039</v>
       </c>
       <c r="O7" s="3">
-        <v>12.003247670304</v>
+        <v>16.2620375074636</v>
       </c>
       <c r="P7" s="3">
-        <v>11.6296307096</v>
+        <v>20.3313424910445</v>
       </c>
       <c r="Q7" s="3">
-        <v>36.0146043746</v>
+        <v>57.5420402386347</v>
       </c>
       <c r="R7" s="3">
-        <v>9.49346342435199</v>
+        <v>8.22037024086478</v>
       </c>
       <c r="S7" s="3">
-        <v>15.8556741922</v>
+        <v>12.8720771699547</v>
       </c>
       <c r="T7" s="3">
-        <v>9.23905649527999</v>
+        <v>10.1807599910804</v>
       </c>
       <c r="U7" s="3">
-        <v>35.25936426255</v>
+        <v>34.2430718612023</v>
       </c>
       <c r="V7" s="3">
-        <v>8.74764445050001</v>
+        <v>7.97421175791417</v>
       </c>
       <c r="W7" s="3">
-        <v>10.460463882176</v>
+        <v>10.6548670479398</v>
       </c>
       <c r="X7" s="3">
-        <v>8.468676834936</v>
+        <v>7.306602914259</v>
       </c>
       <c r="Y7" s="3">
-        <v>27.3651861575</v>
+        <v>26.8848469201013</v>
       </c>
       <c r="Z7" s="3">
-        <v>7.268535258944</v>
+        <v>8.06728898257349</v>
       </c>
       <c r="AA7" s="3">
-        <v>6.45110770668799</v>
+        <v>5.6827488451906</v>
       </c>
       <c r="AB7" s="3">
-        <v>6.89877597106999</v>
+        <v>6.59933615728081</v>
       </c>
       <c r="AC7" s="3">
-        <v>20.4446555107201</v>
+        <v>19.5854411345655</v>
       </c>
       <c r="AD7" s="3">
-        <v>4.42634463712</v>
+        <v>4.92104004630431</v>
       </c>
       <c r="AE7" s="3">
-        <v>2.67221376618</v>
+        <v>3.07951904685084</v>
       </c>
       <c r="AF7" s="3">
-        <v>7.52985835904</v>
+        <v>4.70248149470477</v>
       </c>
       <c r="AG7" s="3">
-        <v>14.03792830555</v>
+        <v>14.9875702537784</v>
       </c>
       <c r="AH7" s="3">
-        <v>1.44986886672</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI7" s="3">
-        <v>1.20633121174</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ7" s="3">
-        <v>2.95522384329601</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="3">
-        <v>5.56615691288</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL7" s="3">
-        <v>39.5573219756401</v>
+        <v>34.2878108429634</v>
       </c>
       <c r="AM7" s="3">
-        <v>29.8899266784</v>
+        <v>26.7046082592177</v>
       </c>
       <c r="AN7" s="3">
-        <v>23.295869986354</v>
+        <v>23.8747995689166</v>
       </c>
       <c r="AO7" s="3">
-        <v>90.3342005314</v>
+        <v>85.0116907566743</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -2218,16 +2216,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>2.09123842346784</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>4.69075139155049</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>4.09398957799651</v>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>11.1297442535696</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <v>27</v>
@@ -2242,100 +2240,100 @@
         <v>66</v>
       </c>
       <c r="J8" s="3">
-        <v>9.71067265926002</v>
+        <v>9.07474275474026</v>
       </c>
       <c r="K8" s="3">
-        <v>6.085890979952</v>
+        <v>10.3875586154348</v>
       </c>
       <c r="L8" s="3">
-        <v>10.8613993725888</v>
+        <v>9.3052573877801</v>
       </c>
       <c r="M8" s="3">
-        <v>26.7396262492235</v>
+        <v>28.9521274105337</v>
       </c>
       <c r="N8" s="3">
-        <v>9.8818745805096</v>
+        <v>19.5786388767891</v>
       </c>
       <c r="O8" s="3">
-        <v>11.9077849219767</v>
+        <v>16.2616012122711</v>
       </c>
       <c r="P8" s="3">
-        <v>11.568159386408</v>
+        <v>20.86481059862</v>
       </c>
       <c r="Q8" s="3">
-        <v>35.731783674038</v>
+        <v>57.6291580651536</v>
       </c>
       <c r="R8" s="3">
-        <v>9.5012547573008</v>
+        <v>8.29227490555142</v>
       </c>
       <c r="S8" s="3">
-        <v>15.225706294176</v>
+        <v>12.8739320304875</v>
       </c>
       <c r="T8" s="3">
-        <v>9.1131670947664</v>
+        <v>10.1825385956848</v>
       </c>
       <c r="U8" s="3">
-        <v>33.7438735673955</v>
+        <v>34.2473842178033</v>
       </c>
       <c r="V8" s="3">
-        <v>8.75301974626502</v>
+        <v>7.91612423560851</v>
       </c>
       <c r="W8" s="3">
-        <v>10.4961777888608</v>
+        <v>10.6545512721195</v>
       </c>
       <c r="X8" s="3">
-        <v>8.54842883401623</v>
+        <v>7.29624923684587</v>
       </c>
       <c r="Y8" s="3">
-        <v>27.6101929138249</v>
+        <v>26.8846396407726</v>
       </c>
       <c r="Z8" s="3">
-        <v>7.26344641561855</v>
+        <v>8.06728899095036</v>
       </c>
       <c r="AA8" s="3">
-        <v>6.44988940812671</v>
+        <v>5.66082092304928</v>
       </c>
       <c r="AB8" s="3">
-        <v>6.9486983810199</v>
+        <v>6.5548966237543</v>
       </c>
       <c r="AC8" s="3">
-        <v>20.4299369539873</v>
+        <v>19.4130159513649</v>
       </c>
       <c r="AD8" s="3">
-        <v>4.4055870690656</v>
+        <v>4.92034079908594</v>
       </c>
       <c r="AE8" s="3">
-        <v>2.69590774070459</v>
+        <v>3.0793162848995</v>
       </c>
       <c r="AF8" s="3">
-        <v>7.55564562981119</v>
+        <v>4.69889471470615</v>
       </c>
       <c r="AG8" s="3">
-        <v>14.066111603403</v>
+        <v>14.9808810337124</v>
       </c>
       <c r="AH8" s="3">
-        <v>1.4556249417552</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI8" s="3">
-        <v>1.2065671607412</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ8" s="3">
-        <v>2.96086305113024</v>
+        <v>2</v>
       </c>
       <c r="AK8" s="3">
-        <v>5.58800425070241</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL8" s="3">
-        <v>39.5626839572493</v>
+        <v>34.2885280940667</v>
       </c>
       <c r="AM8" s="3">
-        <v>29.962607559296</v>
+        <v>26.7066938220149</v>
       </c>
       <c r="AN8" s="3">
-        <v>23.2997580582147</v>
+        <v>23.8782723376403</v>
       </c>
       <c r="AO8" s="3">
-        <v>90.630234459126</v>
+        <v>85.0207444770708</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -2343,16 +2341,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>2.19655333897188</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>4.68113122372013</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>4.12193760115841</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>11.4167552476355</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <v>27</v>
@@ -2367,100 +2365,100 @@
         <v>66</v>
       </c>
       <c r="J9" s="3">
-        <v>9.74895313705821</v>
+        <v>9.07695533546228</v>
       </c>
       <c r="K9" s="3">
-        <v>6.2047947248296</v>
+        <v>10.3882252040176</v>
       </c>
       <c r="L9" s="3">
-        <v>10.9218892204873</v>
+        <v>9.31263482540995</v>
       </c>
       <c r="M9" s="3">
-        <v>26.8804242682298</v>
+        <v>28.9536614771336</v>
       </c>
       <c r="N9" s="3">
-        <v>10.0417501938657</v>
+        <v>19.5527103207158</v>
       </c>
       <c r="O9" s="3">
-        <v>11.9122216452883</v>
+        <v>16.2613611412271</v>
       </c>
       <c r="P9" s="3">
-        <v>11.6636726417326</v>
+        <v>20.5371358414805</v>
       </c>
       <c r="Q9" s="3">
-        <v>36.0474110189214</v>
+        <v>57.5948189810488</v>
       </c>
       <c r="R9" s="3">
-        <v>9.51166952114514</v>
+        <v>8.3543688421678</v>
       </c>
       <c r="S9" s="3">
-        <v>14.83721599156</v>
+        <v>12.8753503175857</v>
       </c>
       <c r="T9" s="3">
-        <v>8.95602003447826</v>
+        <v>10.1840270622496</v>
       </c>
       <c r="U9" s="3">
-        <v>33.7894054625271</v>
+        <v>34.2509048365361</v>
       </c>
       <c r="V9" s="3">
-        <v>8.58336876754078</v>
+        <v>7.85224348750302</v>
       </c>
       <c r="W9" s="3">
-        <v>9.84480848243754</v>
+        <v>10.6543908332432</v>
       </c>
       <c r="X9" s="3">
-        <v>8.10872806512788</v>
+        <v>7.30108807905042</v>
       </c>
       <c r="Y9" s="3">
-        <v>26.1623451440844</v>
+        <v>26.8845438040753</v>
       </c>
       <c r="Z9" s="3">
-        <v>7.32042791834631</v>
+        <v>8.06728899021175</v>
       </c>
       <c r="AA9" s="3">
-        <v>6.45031498266682</v>
+        <v>5.64812896020462</v>
       </c>
       <c r="AB9" s="3">
-        <v>6.97784932370733</v>
+        <v>6.52566949342317</v>
       </c>
       <c r="AC9" s="3">
-        <v>20.5836270132648</v>
+        <v>19.2874752291919</v>
       </c>
       <c r="AD9" s="3">
-        <v>4.31443436196367</v>
+        <v>4.92064083109227</v>
       </c>
       <c r="AE9" s="3">
-        <v>2.58774954692959</v>
+        <v>3.07915689509355</v>
       </c>
       <c r="AF9" s="3">
-        <v>7.49298318071347</v>
+        <v>4.69773403262767</v>
       </c>
       <c r="AG9" s="3">
-        <v>13.605841299472</v>
+        <v>14.983625196266</v>
       </c>
       <c r="AH9" s="3">
-        <v>1.49372205623707</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI9" s="3">
-        <v>1.27873383279862</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ9" s="3">
-        <v>2.98778640512652</v>
+        <v>2</v>
       </c>
       <c r="AK9" s="3">
-        <v>5.80135480044872</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL9" s="3">
-        <v>39.6482043778873</v>
+        <v>34.291773582242</v>
       </c>
       <c r="AM9" s="3">
-        <v>29.9498551616128</v>
+        <v>26.7087072331945</v>
       </c>
       <c r="AN9" s="3">
-        <v>23.4815759881663</v>
+        <v>23.8807461313403</v>
       </c>
       <c r="AO9" s="3">
-        <v>90.8916794459269</v>
+        <v>85.0278552369088</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -2468,16 +2466,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>2.2887709698684</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>4.68118000900009</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
-        <v>4.11041125430287</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>11.1982923002022</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>27</v>
@@ -2492,100 +2490,100 @@
         <v>66</v>
       </c>
       <c r="J10" s="3">
-        <v>9.81146223112858</v>
+        <v>9.0764512326213</v>
       </c>
       <c r="K10" s="3">
-        <v>6.22626082134347</v>
+        <v>10.3887536326993</v>
       </c>
       <c r="L10" s="3">
-        <v>10.9083957063644</v>
+        <v>9.31048155777044</v>
       </c>
       <c r="M10" s="3">
-        <v>26.969380282311</v>
+        <v>28.9550575697964</v>
       </c>
       <c r="N10" s="3">
-        <v>10.1283670362408</v>
+        <v>19.5638337944095</v>
       </c>
       <c r="O10" s="3">
-        <v>11.9476020851945</v>
+        <v>16.2612279883064</v>
       </c>
       <c r="P10" s="3">
-        <v>11.6974804798028</v>
+        <v>20.7388952737076</v>
       </c>
       <c r="Q10" s="3">
-        <v>36.21258835236</v>
+        <v>57.6083692532843</v>
       </c>
       <c r="R10" s="3">
-        <v>9.57144360310848</v>
+        <v>8.40927560658613</v>
       </c>
       <c r="S10" s="3">
-        <v>15.0679058145314</v>
+        <v>12.8765626351061</v>
       </c>
       <c r="T10" s="3">
-        <v>9.59745914984443</v>
+        <v>10.1852509790612</v>
       </c>
       <c r="U10" s="3">
-        <v>34.7413516400261</v>
+        <v>34.253786505722</v>
       </c>
       <c r="V10" s="3">
-        <v>8.62814385315497</v>
+        <v>7.76539902715048</v>
       </c>
       <c r="W10" s="3">
-        <v>9.63533949866635</v>
+        <v>10.6543077167298</v>
       </c>
       <c r="X10" s="3">
-        <v>7.95394556219675</v>
+        <v>7.29874707901937</v>
       </c>
       <c r="Y10" s="3">
-        <v>25.5551640693068</v>
+        <v>26.8844940735694</v>
       </c>
       <c r="Z10" s="3">
-        <v>7.33185708249567</v>
+        <v>8.06728899025737</v>
       </c>
       <c r="AA10" s="3">
-        <v>6.44978593849318</v>
+        <v>5.6407377175579</v>
       </c>
       <c r="AB10" s="3">
-        <v>6.94032793119692</v>
+        <v>6.50658969183016</v>
       </c>
       <c r="AC10" s="3">
-        <v>20.5887578467268</v>
+        <v>19.1962675641493</v>
       </c>
       <c r="AD10" s="3">
-        <v>4.32531329609054</v>
+        <v>4.9205058687592</v>
       </c>
       <c r="AE10" s="3">
-        <v>2.41160675698088</v>
+        <v>3.07898487826005</v>
       </c>
       <c r="AF10" s="3">
-        <v>7.51876722072633</v>
+        <v>4.69733565702482</v>
       </c>
       <c r="AG10" s="3">
-        <v>13.5247311404153</v>
+        <v>14.982458530637</v>
       </c>
       <c r="AH10" s="3">
-        <v>1.47503299854767</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI10" s="3">
-        <v>1.25740034074097</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ10" s="3">
-        <v>2.96895418028488</v>
+        <v>2</v>
       </c>
       <c r="AK10" s="3">
-        <v>5.72828826976943</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL10" s="3">
-        <v>39.6296101975915</v>
+        <v>34.2936567103063</v>
       </c>
       <c r="AM10" s="3">
-        <v>29.9340040198489</v>
+        <v>26.7103562901413</v>
       </c>
       <c r="AN10" s="3">
-        <v>23.5065138348302</v>
+        <v>23.8829490927081</v>
       </c>
       <c r="AO10" s="3">
-        <v>91.3423001084787</v>
+        <v>85.0340130658115</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -2593,16 +2591,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>2.39468741189431</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>4.69644327158782</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>4.26229700613187</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3">
-        <v>11.3983880465662</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3">
         <v>27</v>
@@ -2617,100 +2615,100 @@
         <v>66</v>
       </c>
       <c r="J11" s="3">
-        <v>9.75368373044015</v>
+        <v>9.07699779531831</v>
       </c>
       <c r="K11" s="3">
-        <v>6.19472752992363</v>
+        <v>10.3893509209672</v>
       </c>
       <c r="L11" s="3">
-        <v>10.7847971459408</v>
+        <v>9.31189402683937</v>
       </c>
       <c r="M11" s="3">
-        <v>26.5121731784131</v>
+        <v>28.9561358479654</v>
       </c>
       <c r="N11" s="3">
-        <v>10.0639696642369</v>
+        <v>19.5590273873477</v>
       </c>
       <c r="O11" s="3">
-        <v>11.9515804494309</v>
+        <v>16.2611535659184</v>
       </c>
       <c r="P11" s="3">
-        <v>11.6369143811992</v>
+        <v>20.6143921573294</v>
       </c>
       <c r="Q11" s="3">
-        <v>36.0209065079381</v>
+        <v>57.6029951903495</v>
       </c>
       <c r="R11" s="3">
-        <v>9.56719299666467</v>
+        <v>8.45886788507062</v>
       </c>
       <c r="S11" s="3">
-        <v>15.2988832623009</v>
+        <v>12.8776012883924</v>
       </c>
       <c r="T11" s="3">
-        <v>9.92329941140675</v>
+        <v>10.1864142522424</v>
       </c>
       <c r="U11" s="3">
-        <v>35.6455322991994</v>
+        <v>34.260026299029</v>
       </c>
       <c r="V11" s="3">
-        <v>8.60812293746586</v>
+        <v>7.70379595605666</v>
       </c>
       <c r="W11" s="3">
-        <v>9.70192111812866</v>
+        <v>10.6542642452066</v>
       </c>
       <c r="X11" s="3">
-        <v>8.04327171883768</v>
+        <v>7.29984429006028</v>
       </c>
       <c r="Y11" s="3">
-        <v>25.9032627400819</v>
+        <v>26.884469406726</v>
       </c>
       <c r="Z11" s="3">
-        <v>7.30004158988901</v>
+        <v>8.06728899025374</v>
       </c>
       <c r="AA11" s="3">
-        <v>6.44953740795379</v>
+        <v>5.63633283204479</v>
       </c>
       <c r="AB11" s="3">
-        <v>6.94569761245287</v>
+        <v>6.49378185014559</v>
       </c>
       <c r="AC11" s="3">
-        <v>20.5652140010487</v>
+        <v>19.1301147852847</v>
       </c>
       <c r="AD11" s="3">
-        <v>4.29247780502672</v>
+        <v>4.92056439204932</v>
       </c>
       <c r="AE11" s="3">
-        <v>2.4198637039619</v>
+        <v>3.07884825050409</v>
       </c>
       <c r="AF11" s="3">
-        <v>7.52608349678365</v>
+        <v>4.69716281273941</v>
       </c>
       <c r="AG11" s="3">
-        <v>13.5950778377512</v>
+        <v>14.982939590552</v>
       </c>
       <c r="AH11" s="3">
-        <v>1.46868888602495</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI11" s="3">
-        <v>1.23266224420207</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ11" s="3">
-        <v>2.96313786373678</v>
+        <v>6</v>
       </c>
       <c r="AK11" s="3">
-        <v>5.66197249331282</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL11" s="3">
-        <v>39.6092906792992</v>
+        <v>34.2955989501527</v>
       </c>
       <c r="AM11" s="3">
-        <v>29.9329574261319</v>
+        <v>26.7118068354424</v>
       </c>
       <c r="AN11" s="3">
-        <v>23.363570028838</v>
+        <v>23.8848387163257</v>
       </c>
       <c r="AO11" s="3">
-        <v>91.2153988383787</v>
+        <v>85.039135502368</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2718,16 +2716,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>2.30245555631011</v>
+        <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>4.65962647359599</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>4.22240322509743</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3">
-        <v>11.3738479135917</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3">
         <v>27</v>
@@ -2742,100 +2740,100 @@
         <v>66</v>
       </c>
       <c r="J12" s="3">
-        <v>9.86586476687092</v>
+        <v>9.07707424065377</v>
       </c>
       <c r="K12" s="3">
-        <v>5.98702989937592</v>
+        <v>10.389756010025</v>
       </c>
       <c r="L12" s="3">
-        <v>10.4131290285145</v>
+        <v>9.3119482126036</v>
       </c>
       <c r="M12" s="3">
-        <v>25.6010921176088</v>
+        <v>28.957294697847</v>
       </c>
       <c r="N12" s="3">
-        <v>10.0640419256132</v>
+        <v>19.5611012099452</v>
       </c>
       <c r="O12" s="3">
-        <v>11.9823504903304</v>
+        <v>16.2611117255572</v>
       </c>
       <c r="P12" s="3">
-        <v>11.6724078316442</v>
+        <v>20.6913764280522</v>
       </c>
       <c r="Q12" s="3">
-        <v>36.1349099694717</v>
+        <v>57.6051280991904</v>
       </c>
       <c r="R12" s="3">
-        <v>9.64923158896124</v>
+        <v>8.50485002037561</v>
       </c>
       <c r="S12" s="3">
-        <v>15.0749962977664</v>
+        <v>12.8784993812387</v>
       </c>
       <c r="T12" s="3">
-        <v>9.73354904867406</v>
+        <v>10.1872801188312</v>
       </c>
       <c r="U12" s="3">
-        <v>35.6869613912546</v>
+        <v>34.2622965147412</v>
       </c>
       <c r="V12" s="3">
-        <v>8.68290675001727</v>
+        <v>7.68716373458079</v>
       </c>
       <c r="W12" s="3">
-        <v>9.59891231967299</v>
+        <v>10.6542413756864</v>
       </c>
       <c r="X12" s="3">
-        <v>8.02894335410672</v>
+        <v>7.29930739440031</v>
       </c>
       <c r="Y12" s="3">
-        <v>25.6437673574314</v>
+        <v>26.8844568626886</v>
       </c>
       <c r="Z12" s="3">
-        <v>7.32005493740068</v>
+        <v>8.06728899025396</v>
       </c>
       <c r="AA12" s="3">
-        <v>6.45023063400812</v>
+        <v>5.63365265995187</v>
       </c>
       <c r="AB12" s="3">
-        <v>6.94299810883236</v>
+        <v>6.48535391368868</v>
       </c>
       <c r="AC12" s="3">
-        <v>20.5675978388309</v>
+        <v>19.0820450722293</v>
       </c>
       <c r="AD12" s="3">
-        <v>4.31609849282357</v>
+        <v>4.92053800014806</v>
       </c>
       <c r="AE12" s="3">
-        <v>2.33097014049899</v>
+        <v>3.07873464996312</v>
       </c>
       <c r="AF12" s="3">
-        <v>7.52199098627411</v>
+        <v>4.6970679199615</v>
       </c>
       <c r="AG12" s="3">
-        <v>13.5829484265359</v>
+        <v>14.9827334334407</v>
       </c>
       <c r="AH12" s="3">
-        <v>1.47500105629731</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI12" s="3">
-        <v>1.25642555928847</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ12" s="3">
-        <v>2.96614862281829</v>
+        <v>6</v>
       </c>
       <c r="AK12" s="3">
-        <v>5.71742012606595</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL12" s="3">
-        <v>40.7146928804326</v>
+        <v>34.2971939122916</v>
       </c>
       <c r="AM12" s="3">
-        <v>30.8761264715866</v>
+        <v>26.7130318777507</v>
       </c>
       <c r="AN12" s="3">
-        <v>24.5464684516357</v>
+        <v>23.8864909305509</v>
       </c>
       <c r="AO12" s="3">
-        <v>93.2840586699324</v>
+        <v>85.0443982217659</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2843,16 +2841,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>2.69375141663882</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>4.91921564541659</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>4.78942783631492</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3">
-        <v>12.4732355280543</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3">
         <v>27</v>
@@ -2867,100 +2865,100 @@
         <v>66</v>
       </c>
       <c r="J13" s="3">
-        <v>9.85058343460484</v>
+        <v>9.07729405392846</v>
       </c>
       <c r="K13" s="3">
-        <v>5.87592919387744</v>
+        <v>10.3901506065554</v>
       </c>
       <c r="L13" s="3">
-        <v>10.5576990536707</v>
+        <v>9.31240994140077</v>
       </c>
       <c r="M13" s="3">
-        <v>25.8143895172317</v>
+        <v>28.9580534764834</v>
       </c>
       <c r="N13" s="3">
-        <v>10.2029274033985</v>
+        <v>19.5602005483278</v>
       </c>
       <c r="O13" s="3">
-        <v>11.986254536399</v>
+        <v>16.2610880767937</v>
       </c>
       <c r="P13" s="3">
-        <v>11.9972905215881</v>
+        <v>20.6436865743476</v>
       </c>
       <c r="Q13" s="3">
-        <v>36.5263005443847</v>
+        <v>57.6042778856102</v>
       </c>
       <c r="R13" s="3">
-        <v>9.72093830470746</v>
+        <v>8.54730575159974</v>
       </c>
       <c r="S13" s="3">
-        <v>15.0088943723606</v>
+        <v>12.8792761298763</v>
       </c>
       <c r="T13" s="3">
-        <v>9.67790600134094</v>
+        <v>10.1881221029481</v>
       </c>
       <c r="U13" s="3">
-        <v>35.8924881673921</v>
+        <v>34.2643603729882</v>
       </c>
       <c r="V13" s="3">
-        <v>8.32577812255786</v>
+        <v>7.68270378692981</v>
       </c>
       <c r="W13" s="3">
-        <v>9.44806256252054</v>
+        <v>10.6542293900568</v>
       </c>
       <c r="X13" s="3">
-        <v>7.91144319256347</v>
+        <v>7.29955908671669</v>
       </c>
       <c r="Y13" s="3">
-        <v>25.4786668792908</v>
+        <v>26.8844503549903</v>
       </c>
       <c r="Z13" s="3">
-        <v>7.34978611186177</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA13" s="3">
-        <v>6.56029559376985</v>
+        <v>5.63196052244042</v>
       </c>
       <c r="AB13" s="3">
-        <v>7.10619609984332</v>
+        <v>6.47971232285782</v>
       </c>
       <c r="AC13" s="3">
-        <v>20.7105832227488</v>
+        <v>19.0470988713762</v>
       </c>
       <c r="AD13" s="3">
-        <v>4.20954449143555</v>
+        <v>4.92054954096466</v>
       </c>
       <c r="AE13" s="3">
-        <v>2.22381373899919</v>
+        <v>3.078637397393</v>
       </c>
       <c r="AF13" s="3">
-        <v>7.49325628978281</v>
+        <v>4.69700480241032</v>
       </c>
       <c r="AG13" s="3">
-        <v>13.3499151391492</v>
+        <v>14.9828187457517</v>
       </c>
       <c r="AH13" s="3">
-        <v>1.50827728804765</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI13" s="3">
-        <v>1.2823392787068</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ13" s="3">
-        <v>2.99086214114357</v>
+        <v>6</v>
       </c>
       <c r="AK13" s="3">
-        <v>5.75566594306364</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL13" s="3">
-        <v>40.2047971704051</v>
+        <v>34.2985652801689</v>
       </c>
       <c r="AM13" s="3">
-        <v>30.9797934259648</v>
+        <v>26.7141128926604</v>
       </c>
       <c r="AN13" s="3">
-        <v>24.5374769689182</v>
+        <v>23.8877710527231</v>
       </c>
       <c r="AO13" s="3">
-        <v>93.7697684861003</v>
+        <v>85.0481101260394</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2968,16 +2966,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>2.60346221568803</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
-        <v>4.27958322057405</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3">
-        <v>4.51522140195723</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3">
-        <v>12.2015766996065</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3">
         <v>27</v>
@@ -2992,100 +2990,100 @@
         <v>66</v>
       </c>
       <c r="J14" s="3">
-        <v>10.0283994834288</v>
+        <v>9.07742444974176</v>
       </c>
       <c r="K14" s="3">
-        <v>11.9465090627369</v>
+        <v>10.3904245937926</v>
       </c>
       <c r="L14" s="3">
-        <v>10.5346430105761</v>
+        <v>9.31257553943997</v>
       </c>
       <c r="M14" s="3">
-        <v>29.8421924449834</v>
+        <v>28.9589361787028</v>
       </c>
       <c r="N14" s="3">
-        <v>10.1870734839708</v>
+        <v>19.5605909937947</v>
       </c>
       <c r="O14" s="3">
-        <v>11.9812311263765</v>
+        <v>16.2610746468471</v>
       </c>
       <c r="P14" s="3">
-        <v>11.7853015525226</v>
+        <v>20.6732794701005</v>
       </c>
       <c r="Q14" s="3">
-        <v>36.1982619634529</v>
+        <v>57.6046169500234</v>
       </c>
       <c r="R14" s="3">
-        <v>10.6614149454171</v>
+        <v>8.58779012216532</v>
       </c>
       <c r="S14" s="3">
-        <v>15.7610067341879</v>
+        <v>12.8799612599016</v>
       </c>
       <c r="T14" s="3">
-        <v>10.4930791725314</v>
+        <v>10.1888182694462</v>
       </c>
       <c r="U14" s="3">
-        <v>37.1460692031289</v>
+        <v>34.266371394243</v>
       </c>
       <c r="V14" s="3">
-        <v>8.57950083275215</v>
+        <v>7.6814976420102</v>
       </c>
       <c r="W14" s="3">
-        <v>9.3899485370893</v>
+        <v>10.6542229661165</v>
       </c>
       <c r="X14" s="3">
-        <v>7.88611388177232</v>
+        <v>7.29943443624319</v>
       </c>
       <c r="Y14" s="3">
-        <v>25.2697153824543</v>
+        <v>26.8844470914528</v>
       </c>
       <c r="Z14" s="3">
-        <v>2.64197259793673</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA14" s="3">
-        <v>2.78413324228273</v>
+        <v>5.63082606466835</v>
       </c>
       <c r="AB14" s="3">
-        <v>3.09404617660318</v>
+        <v>6.47592788692423</v>
       </c>
       <c r="AC14" s="3">
-        <v>8.29186646538062</v>
+        <v>19.0216553088569</v>
       </c>
       <c r="AD14" s="3">
-        <v>4.26648292216156</v>
+        <v>4.92054432425876</v>
       </c>
       <c r="AE14" s="3">
-        <v>2.25482315421473</v>
+        <v>3.0785518341051</v>
       </c>
       <c r="AF14" s="3">
-        <v>7.52355021750086</v>
+        <v>4.69696440378809</v>
       </c>
       <c r="AG14" s="3">
-        <v>12.6647142542313</v>
+        <v>14.9827819264833</v>
       </c>
       <c r="AH14" s="3">
-        <v>1.48376032299277</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI14" s="3">
-        <v>1.26064001892685</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ14" s="3">
-        <v>2.97331924833661</v>
+        <v>6</v>
       </c>
       <c r="AK14" s="3">
-        <v>5.73300854753869</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL14" s="3">
-        <v>40.3308003904301</v>
+        <v>34.299770151735</v>
       </c>
       <c r="AM14" s="3">
-        <v>31.1577120286954</v>
+        <v>26.7150479996468</v>
       </c>
       <c r="AN14" s="3">
-        <v>25.1486271925945</v>
+        <v>23.8891888373066</v>
       </c>
       <c r="AO14" s="3">
-        <v>94.4389483586085</v>
+        <v>85.0517872014203</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -3093,16 +3091,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>2.63761527527191</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
-        <v>4.19573978640006</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
-        <v>3.88260701560711</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3">
-        <v>10.6997407465811</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3">
         <v>27</v>
@@ -3117,100 +3115,100 @@
         <v>66</v>
       </c>
       <c r="J15" s="3">
-        <v>10.0604481944316</v>
+        <v>9.07756757541258</v>
       </c>
       <c r="K15" s="3">
-        <v>12.0291718004585</v>
+        <v>10.3908122217138</v>
       </c>
       <c r="L15" s="3">
-        <v>10.4547521510011</v>
+        <v>9.31293808531963</v>
       </c>
       <c r="M15" s="3">
-        <v>29.0615763569081</v>
+        <v>28.9595306820025</v>
       </c>
       <c r="N15" s="3">
-        <v>10.3356746765996</v>
+        <v>19.5604206964167</v>
       </c>
       <c r="O15" s="3">
-        <v>11.9781310470317</v>
+        <v>16.2610669870441</v>
       </c>
       <c r="P15" s="3">
-        <v>11.8478855880042</v>
+        <v>20.6548870941576</v>
       </c>
       <c r="Q15" s="3">
-        <v>36.2320585331519</v>
+        <v>57.6044812136407</v>
       </c>
       <c r="R15" s="3">
-        <v>10.3346404111933</v>
+        <v>8.62672139278116</v>
       </c>
       <c r="S15" s="3">
-        <v>15.4815621987873</v>
+        <v>12.8805543986594</v>
       </c>
       <c r="T15" s="3">
-        <v>10.9657658869595</v>
+        <v>10.1894386204955</v>
       </c>
       <c r="U15" s="3">
-        <v>36.3601853366098</v>
+        <v>34.2680047097688</v>
       </c>
       <c r="V15" s="3">
-        <v>8.70843834872403</v>
+        <v>7.68115370379952</v>
       </c>
       <c r="W15" s="3">
-        <v>9.68705715622203</v>
+        <v>10.6542195223917</v>
       </c>
       <c r="X15" s="3">
-        <v>7.78398233437134</v>
+        <v>7.2994927159032</v>
       </c>
       <c r="Y15" s="3">
-        <v>25.163567549147</v>
+        <v>26.8844454470457</v>
       </c>
       <c r="Z15" s="3">
-        <v>2.75629204904489</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA15" s="3">
-        <v>2.89525013972831</v>
+        <v>5.63003311843487</v>
       </c>
       <c r="AB15" s="3">
-        <v>3.21531784094035</v>
+        <v>6.47322901626554</v>
       </c>
       <c r="AC15" s="3">
-        <v>8.62248620027585</v>
+        <v>19.00301938801</v>
       </c>
       <c r="AD15" s="3">
-        <v>4.27868001650846</v>
+        <v>4.92054662123862</v>
       </c>
       <c r="AE15" s="3">
-        <v>2.21167693623275</v>
+        <v>3.07848084025388</v>
       </c>
       <c r="AF15" s="3">
-        <v>6.75785283341811</v>
+        <v>4.69691984378704</v>
       </c>
       <c r="AG15" s="3">
-        <v>12.8226097092644</v>
+        <v>14.9827971932785</v>
       </c>
       <c r="AH15" s="3">
-        <v>2.5217866332525</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI15" s="3">
-        <v>2.12068216343848</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ15" s="3">
-        <v>3.66932877498949</v>
+        <v>6</v>
       </c>
       <c r="AK15" s="3">
-        <v>8.3267816104169</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL15" s="3">
-        <v>40.5261523752013</v>
+        <v>34.3008491700047</v>
       </c>
       <c r="AM15" s="3">
-        <v>31.5402781399453</v>
+        <v>26.7158847571413</v>
       </c>
       <c r="AN15" s="3">
-        <v>25.677715574407</v>
+        <v>23.8902174172375</v>
       </c>
       <c r="AO15" s="3">
-        <v>95.6438855139041</v>
+        <v>85.0547010226655</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -3218,16 +3216,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>2.58746524586805</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>4.30580491108531</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>3.80546466452929</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3">
-        <v>10.553261204107</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>27</v>
@@ -3242,100 +3240,100 @@
         <v>66</v>
       </c>
       <c r="J16" s="3">
-        <v>10.0409448812732</v>
+        <v>9.07768382199132</v>
       </c>
       <c r="K16" s="3">
-        <v>11.5022241779296</v>
+        <v>10.3910630161327</v>
       </c>
       <c r="L16" s="3">
-        <v>10.4755047641233</v>
+        <v>9.31312355832431</v>
       </c>
       <c r="M16" s="3">
-        <v>28.864617101786</v>
+        <v>28.9600318331541</v>
       </c>
       <c r="N16" s="3">
-        <v>10.368595853466</v>
+        <v>19.560494820724</v>
       </c>
       <c r="O16" s="3">
-        <v>11.9778491873138</v>
+        <v>16.2610626352016</v>
       </c>
       <c r="P16" s="3">
-        <v>11.8416017416306</v>
+        <v>20.6663346489241</v>
       </c>
       <c r="Q16" s="3">
-        <v>36.305991018081</v>
+        <v>57.60453556426</v>
       </c>
       <c r="R16" s="3">
-        <v>10.2376227440769</v>
+        <v>8.6646516626406</v>
       </c>
       <c r="S16" s="3">
-        <v>15.461286781081</v>
+        <v>12.8810791445496</v>
       </c>
       <c r="T16" s="3">
-        <v>10.7894749645789</v>
+        <v>10.1899610243124</v>
       </c>
       <c r="U16" s="3">
-        <v>36.3946026222441</v>
+        <v>34.2694372758897</v>
       </c>
       <c r="V16" s="3">
-        <v>8.71173452630591</v>
+        <v>7.6810295204751</v>
       </c>
       <c r="W16" s="3">
-        <v>9.75889742363424</v>
+        <v>10.6542176701083</v>
       </c>
       <c r="X16" s="3">
-        <v>7.76434919895272</v>
+        <v>7.29946344830345</v>
       </c>
       <c r="Y16" s="3">
-        <v>25.1150452447192</v>
+        <v>26.8844445728459</v>
       </c>
       <c r="Z16" s="3">
-        <v>3.07139494117516</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA16" s="3">
-        <v>3.10370022613175</v>
+        <v>5.62944186846505</v>
       </c>
       <c r="AB16" s="3">
-        <v>3.42924488150264</v>
+        <v>6.47135179481651</v>
       </c>
       <c r="AC16" s="3">
-        <v>9.46305116465181</v>
+        <v>18.9893070192657</v>
       </c>
       <c r="AD16" s="3">
-        <v>4.26407565799054</v>
+        <v>4.92054558070264</v>
       </c>
       <c r="AE16" s="3">
-        <v>2.18822532737934</v>
+        <v>3.07841486011537</v>
       </c>
       <c r="AF16" s="3">
-        <v>6.9026314718942</v>
+        <v>4.69688749563934</v>
       </c>
       <c r="AG16" s="3">
-        <v>12.891866726904</v>
+        <v>14.9827905573448</v>
       </c>
       <c r="AH16" s="3">
-        <v>2.30098043814633</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI16" s="3">
-        <v>1.93780686474759</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ16" s="3">
-        <v>3.53517566038116</v>
+        <v>6</v>
       </c>
       <c r="AK16" s="3">
-        <v>7.8548933969267</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL16" s="3">
-        <v>40.5214186505649</v>
+        <v>34.301817735741</v>
       </c>
       <c r="AM16" s="3">
-        <v>31.3363722139342</v>
+        <v>26.7166261927124</v>
       </c>
       <c r="AN16" s="3">
-        <v>25.2704331679391</v>
+        <v>23.8912069591584</v>
       </c>
       <c r="AO16" s="3">
-        <v>94.8817508271136</v>
+        <v>85.0561013438675</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -3343,16 +3341,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>2.59857841208644</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>4.3008758139324</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>4.12059797312231</v>
+        <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>11.3020115334406</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3">
         <v>27</v>
@@ -3367,100 +3365,100 @@
         <v>66</v>
       </c>
       <c r="J17" s="3">
-        <v>10.0041967686394</v>
+        <v>9.07776706926666</v>
       </c>
       <c r="K17" s="3">
-        <v>11.0280170551373</v>
+        <v>10.3913226037612</v>
       </c>
       <c r="L17" s="3">
-        <v>10.4876461207881</v>
+        <v>9.31330603501092</v>
       </c>
       <c r="M17" s="3">
-        <v>28.3653967055169</v>
+        <v>28.9607704423129</v>
       </c>
       <c r="N17" s="3">
-        <v>10.3371249694939</v>
+        <v>19.5604623715586</v>
       </c>
       <c r="O17" s="3">
-        <v>11.9791024630565</v>
+        <v>16.2610601122987</v>
       </c>
       <c r="P17" s="3">
-        <v>11.8143396010837</v>
+        <v>20.6591999091652</v>
       </c>
       <c r="Q17" s="3">
-        <v>36.3080415533942</v>
+        <v>57.6045137274687</v>
       </c>
       <c r="R17" s="3">
-        <v>10.3055228528146</v>
+        <v>8.70235351130075</v>
       </c>
       <c r="S17" s="3">
-        <v>15.4640938069409</v>
+        <v>12.8815654770143</v>
       </c>
       <c r="T17" s="3">
-        <v>10.7683324759693</v>
+        <v>10.1904877099527</v>
       </c>
       <c r="U17" s="3">
-        <v>36.5925257114588</v>
+        <v>34.2706675859641</v>
       </c>
       <c r="V17" s="3">
-        <v>8.67913197829129</v>
+        <v>7.68097394386428</v>
       </c>
       <c r="W17" s="3">
-        <v>9.69985329761183</v>
+        <v>10.6542166709949</v>
       </c>
       <c r="X17" s="3">
-        <v>7.76131598080738</v>
+        <v>7.29947704338605</v>
       </c>
       <c r="Y17" s="3">
-        <v>25.2448417493695</v>
+        <v>26.8844441210756</v>
       </c>
       <c r="Z17" s="3">
-        <v>3.21124005507786</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA17" s="3">
-        <v>3.20022685445469</v>
+        <v>5.62897723028573</v>
       </c>
       <c r="AB17" s="3">
-        <v>3.49414707884982</v>
+        <v>6.47000611188928</v>
       </c>
       <c r="AC17" s="3">
-        <v>9.72489206634679</v>
+        <v>18.9792215070259</v>
       </c>
       <c r="AD17" s="3">
-        <v>4.26761194371995</v>
+        <v>4.92054604154615</v>
       </c>
       <c r="AE17" s="3">
-        <v>2.21569667041208</v>
+        <v>3.07835320232297</v>
       </c>
       <c r="AF17" s="3">
-        <v>6.9585244519109</v>
+        <v>4.69685300641881</v>
       </c>
       <c r="AG17" s="3">
-        <v>12.8795591567025</v>
+        <v>14.9827933109942</v>
       </c>
       <c r="AH17" s="3">
-        <v>2.30670955104467</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI17" s="3">
-        <v>1.94263480241137</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ17" s="3">
-        <v>3.53361890442883</v>
+        <v>6</v>
       </c>
       <c r="AK17" s="3">
-        <v>7.91329043809453</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL17" s="3">
-        <v>40.4590636334062</v>
+        <v>34.3026280965784</v>
       </c>
       <c r="AM17" s="3">
-        <v>31.2650245398287</v>
+        <v>26.7172144878269</v>
       </c>
       <c r="AN17" s="3">
-        <v>25.2868920218809</v>
+        <v>23.8920751259979</v>
       </c>
       <c r="AO17" s="3">
-        <v>94.6861731173678</v>
+        <v>85.0604077353048</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -3468,16 +3466,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>2.60229431683911</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>4.3171355733839</v>
+        <v>11</v>
       </c>
       <c r="D18" s="3">
-        <v>4.17279516988534</v>
+        <v>10</v>
       </c>
       <c r="E18" s="3">
-        <v>11.0077411888617</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3">
         <v>27</v>
@@ -3492,100 +3490,100 @@
         <v>66</v>
       </c>
       <c r="J18" s="3">
-        <v>10.8240355214334</v>
+        <v>9.07789598189871</v>
       </c>
       <c r="K18" s="3">
-        <v>11.7010456998962</v>
+        <v>10.391443964494</v>
       </c>
       <c r="L18" s="3">
-        <v>11.5184435099733</v>
+        <v>9.31352239371599</v>
       </c>
       <c r="M18" s="3">
-        <v>31.31611670154</v>
+        <v>28.9611853428763</v>
       </c>
       <c r="N18" s="3">
-        <v>10.3454844817132</v>
+        <v>19.5604765436966</v>
       </c>
       <c r="O18" s="3">
-        <v>11.8195419224185</v>
+        <v>16.2610586551594</v>
       </c>
       <c r="P18" s="3">
-        <v>12.0321564348534</v>
+        <v>20.6636517148495</v>
       </c>
       <c r="Q18" s="3">
-        <v>36.2687833978616</v>
+        <v>57.6045225015814</v>
       </c>
       <c r="R18" s="3">
-        <v>10.3354420020234</v>
+        <v>8.73999884685479</v>
       </c>
       <c r="S18" s="3">
-        <v>15.083886018915</v>
+        <v>12.8819849405864</v>
       </c>
       <c r="T18" s="3">
-        <v>10.7623211717885</v>
+        <v>10.1909172649352</v>
       </c>
       <c r="U18" s="3">
-        <v>36.6100526564518</v>
+        <v>34.271836056646</v>
       </c>
       <c r="V18" s="3">
-        <v>8.45362961806159</v>
+        <v>7.68094159856419</v>
       </c>
       <c r="W18" s="3">
-        <v>7.94060795098583</v>
+        <v>10.6542161303345</v>
       </c>
       <c r="X18" s="3">
-        <v>7.77906693228053</v>
+        <v>7.2994701080308</v>
       </c>
       <c r="Y18" s="3">
-        <v>23.6678066700405</v>
+        <v>26.8844438921242</v>
       </c>
       <c r="Z18" s="3">
-        <v>3.08219180935434</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA18" s="3">
-        <v>3.18164823846413</v>
+        <v>5.62860107710354</v>
       </c>
       <c r="AB18" s="3">
-        <v>3.43382917119021</v>
+        <v>6.46900176500955</v>
       </c>
       <c r="AC18" s="3">
-        <v>9.62494871307419</v>
+        <v>18.9716207228753</v>
       </c>
       <c r="AD18" s="3">
-        <v>4.24194058117112</v>
+        <v>4.92054583238071</v>
       </c>
       <c r="AE18" s="3">
-        <v>2.20369312166642</v>
+        <v>3.07830256248846</v>
       </c>
       <c r="AF18" s="3">
-        <v>6.69112693762166</v>
+        <v>4.69682644751685</v>
       </c>
       <c r="AG18" s="3">
-        <v>12.8393165217923</v>
+        <v>14.982792105565</v>
       </c>
       <c r="AH18" s="3">
-        <v>2.34566674503378</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI18" s="3">
-        <v>1.98329181709378</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ18" s="3">
-        <v>3.56670635087917</v>
+        <v>6</v>
       </c>
       <c r="AK18" s="3">
-        <v>8.01341893858531</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL18" s="3">
-        <v>41.8906839020718</v>
+        <v>34.3034265999501</v>
       </c>
       <c r="AM18" s="3">
-        <v>33.614803655317</v>
+        <v>26.7178895241055</v>
       </c>
       <c r="AN18" s="3">
-        <v>27.8855386229717</v>
+        <v>23.8928146481528</v>
       </c>
       <c r="AO18" s="3">
-        <v>101.480421925136</v>
+        <v>85.062002244524</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -3593,16 +3591,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>2.60956107874924</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>4.26518491862109</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3">
-        <v>4.20485606730427</v>
+        <v>22</v>
       </c>
       <c r="E19" s="3">
-        <v>11.2325048658686</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3">
         <v>27</v>
@@ -3617,100 +3615,100 @@
         <v>66</v>
       </c>
       <c r="J19" s="3">
-        <v>11.0439938983421</v>
+        <v>9.07797954819012</v>
       </c>
       <c r="K19" s="3">
-        <v>12.1057727397484</v>
+        <v>10.3917059973932</v>
       </c>
       <c r="L19" s="3">
-        <v>11.6418532456833</v>
+        <v>9.31367555287908</v>
       </c>
       <c r="M19" s="3">
-        <v>32.1485896517818</v>
+        <v>28.9616245414258</v>
       </c>
       <c r="N19" s="3">
-        <v>10.5707315583868</v>
+        <v>19.560470319841</v>
       </c>
       <c r="O19" s="3">
-        <v>11.8728002239492</v>
+        <v>16.261057813648</v>
       </c>
       <c r="P19" s="3">
-        <v>12.0092178279387</v>
+        <v>20.6608705149194</v>
       </c>
       <c r="Q19" s="3">
-        <v>36.4122805607591</v>
+        <v>57.6045189653047</v>
       </c>
       <c r="R19" s="3">
-        <v>10.2712318520265</v>
+        <v>8.77827405060539</v>
       </c>
       <c r="S19" s="3">
-        <v>15.3324203187249</v>
+        <v>12.8823628194254</v>
       </c>
       <c r="T19" s="3">
-        <v>10.3735102496302</v>
+        <v>10.1913097044735</v>
       </c>
       <c r="U19" s="3">
-        <v>36.6676233586847</v>
+        <v>34.2729915690363</v>
       </c>
       <c r="V19" s="3">
-        <v>8.38370378722875</v>
+        <v>7.68091710170696</v>
       </c>
       <c r="W19" s="3">
-        <v>8.17420779507174</v>
+        <v>10.6542158363675</v>
       </c>
       <c r="X19" s="3">
-        <v>7.96775144347284</v>
+        <v>7.29947329564908</v>
       </c>
       <c r="Y19" s="3">
-        <v>24.0050666904535</v>
+        <v>26.8844437667255</v>
       </c>
       <c r="Z19" s="3">
-        <v>2.90326936616885</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA19" s="3">
-        <v>3.00298489097684</v>
+        <v>5.62828422741614</v>
       </c>
       <c r="AB19" s="3">
-        <v>3.08658238686094</v>
+        <v>6.46820690376989</v>
       </c>
       <c r="AC19" s="3">
-        <v>8.86993678565163</v>
+        <v>18.9658680776253</v>
       </c>
       <c r="AD19" s="3">
-        <v>4.30728241955357</v>
+        <v>4.9205459254719</v>
       </c>
       <c r="AE19" s="3">
-        <v>2.21644314845531</v>
+        <v>3.07825451150944</v>
       </c>
       <c r="AF19" s="3">
-        <v>6.77595052947994</v>
+        <v>4.696798977207</v>
       </c>
       <c r="AG19" s="3">
-        <v>13.4109987527606</v>
+        <v>14.9827926055583</v>
       </c>
       <c r="AH19" s="3">
-        <v>2.25722182114513</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI19" s="3">
-        <v>1.87589864328823</v>
+        <v>-4.23516497286552e-22</v>
       </c>
       <c r="AJ19" s="3">
-        <v>3.46124676691187</v>
+        <v>6</v>
       </c>
       <c r="AK19" s="3">
-        <v>7.49767894294973</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL19" s="3">
-        <v>41.2019324391117</v>
+        <v>34.3040869723079</v>
       </c>
       <c r="AM19" s="3">
-        <v>32.8482409945933</v>
+        <v>26.718390394238</v>
       </c>
       <c r="AN19" s="3">
-        <v>27.3709382566897</v>
+        <v>23.8935530114219</v>
       </c>
       <c r="AO19" s="3">
-        <v>99.1904031020185</v>
+        <v>85.0641040956913</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -3718,16 +3716,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>2.57826509298035</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
-        <v>4.18794094677201</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
-        <v>4.19785852913732</v>
+        <v>16</v>
       </c>
       <c r="E20" s="3">
-        <v>11.0708363582555</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3">
         <v>27</v>
@@ -3742,100 +3740,100 @@
         <v>66</v>
       </c>
       <c r="J20" s="3">
-        <v>11.5022177119817</v>
+        <v>9.07804486756268</v>
       </c>
       <c r="K20" s="3">
-        <v>12.7303100235312</v>
+        <v>10.3918608271225</v>
       </c>
       <c r="L20" s="3">
-        <v>12.0016770815195</v>
+        <v>9.31382602317107</v>
       </c>
       <c r="M20" s="3">
-        <v>33.3016421968269</v>
+        <v>28.9620317038979</v>
       </c>
       <c r="N20" s="3">
-        <v>10.5163063321095</v>
+        <v>19.5604730460905</v>
       </c>
       <c r="O20" s="3">
-        <v>11.8123087532521</v>
+        <v>16.2610573266339</v>
       </c>
       <c r="P20" s="3">
-        <v>12.1772236793368</v>
+        <v>20.662609991104</v>
       </c>
       <c r="Q20" s="3">
-        <v>36.562561559596</v>
+        <v>57.6045203904672</v>
       </c>
       <c r="R20" s="3">
-        <v>10.2135242992419</v>
+        <v>8.81772471295553</v>
       </c>
       <c r="S20" s="3">
-        <v>15.0684594689526</v>
+        <v>12.8826669034899</v>
       </c>
       <c r="T20" s="3">
-        <v>10.3632222141328</v>
+        <v>10.1916641002152</v>
       </c>
       <c r="U20" s="3">
-        <v>36.401955229323</v>
+        <v>34.2737705970776</v>
       </c>
       <c r="V20" s="3">
-        <v>8.16782246669051</v>
+        <v>7.68089433263267</v>
       </c>
       <c r="W20" s="3">
-        <v>6.20952615797836</v>
+        <v>10.6542156765238</v>
       </c>
       <c r="X20" s="3">
-        <v>7.9540560501581</v>
+        <v>7.2994716370546</v>
       </c>
       <c r="Y20" s="3">
-        <v>23.7337168810776</v>
+        <v>26.8844437037505</v>
       </c>
       <c r="Z20" s="3">
-        <v>2.5864701042938</v>
+        <v>8.06728899025395</v>
       </c>
       <c r="AA20" s="3">
-        <v>2.94457100644955</v>
+        <v>5.62802647370957</v>
       </c>
       <c r="AB20" s="3">
-        <v>2.96655129297393</v>
+        <v>6.46760109757371</v>
       </c>
       <c r="AC20" s="3">
-        <v>8.56591972916948</v>
+        <v>18.9614492992528</v>
       </c>
       <c r="AD20" s="3">
-        <v>4.30369699311976</v>
+        <v>4.92054588314504</v>
       </c>
       <c r="AE20" s="3">
-        <v>2.28392116789885</v>
+        <v>3.07821252093692</v>
       </c>
       <c r="AF20" s="3">
-        <v>6.24510716773147</v>
+        <v>4.69677719484629</v>
       </c>
       <c r="AG20" s="3">
-        <v>13.4524247473618</v>
+        <v>14.9827923850787</v>
       </c>
       <c r="AH20" s="3">
-        <v>2.33083712372296</v>
+        <v>-7.35925086037022e-10</v>
       </c>
       <c r="AI20" s="3">
-        <v>1.97033720632182</v>
+        <v>5</v>
       </c>
       <c r="AJ20" s="3">
-        <v>3.53112860731486</v>
+        <v>6</v>
       </c>
       <c r="AK20" s="3">
-        <v>7.75048376335291</v>
+        <v>2.00000000646165</v>
       </c>
       <c r="AL20" s="3">
-        <v>41.2544182622392</v>
+        <v>34.3047031141559</v>
       </c>
       <c r="AM20" s="3">
-        <v>32.6207860849849</v>
+        <v>26.7188727540189</v>
       </c>
       <c r="AN20" s="3">
-        <v>27.3581776005095</v>
+        <v>23.8941446500401</v>
       </c>
       <c r="AO20" s="3">
-        <v>98.5322480600262</v>
+        <v>85.0658676654764</v>
       </c>
     </row>
   </sheetData>
